--- a/routings/types.xlsx
+++ b/routings/types.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
